--- a/report_template/equipHistory.xlsx
+++ b/report_template/equipHistory.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>測站名稱</t>
   </si>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>更換零件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測站名稱：麥寮環境監測中心</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -341,6 +337,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -376,6 +389,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,7 +585,7 @@
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D1:D1048576"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -580,9 +610,7 @@
       <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
